--- a/results/Feature Importance/LGBMRegressor_feature_importance.xlsx
+++ b/results/Feature Importance/LGBMRegressor_feature_importance.xlsx
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCUTc-1l</t>
+          <t>ALogp2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALogp2</t>
+          <t>BCUTp-1l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCUTp-1l</t>
+          <t>XLogP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATSc4</t>
+          <t>ATSc3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -492,53 +492,53 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TopoPSA</t>
+          <t>BCUTc-1l</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATSc3</t>
+          <t>TopoPSA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XLogP</t>
+          <t>ATSc4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JPLogP</t>
+          <t>BCUTc-1h</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCUTc-1h</t>
+          <t>JPLogP</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -558,77 +558,77 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WTPT-3</t>
+          <t>BCUTw-1l</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kier3</t>
+          <t>WPATH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MDEC-22</t>
+          <t>MDEO-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCUTw-1h</t>
+          <t>WTPT-4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>topoShape</t>
+          <t>Kier3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FMF</t>
+          <t>ATSm1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nHBDon</t>
+          <t>MDEC-22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WTPT-4</t>
+          <t>MDEC-13</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,11 +638,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MDEO-11</t>
+          <t>FMF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
